--- a/RFCircuitMatchingNetwork.xlsx
+++ b/RFCircuitMatchingNetwork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guest1/Documents/Embedded_Systems/KiCad/LoRa_Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C51B86-4136-0F49-8CDD-58F7A11C85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCD5FF-5720-0144-82DC-321A3ED92FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{78B4D264-06F8-0141-B008-0179BC2305EC}"/>
   </bookViews>
@@ -36,12 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>LoRa Board Project RF Circuit Calculations</t>
   </si>
   <si>
     <t>Calculations based on an5457-rf-matching-network-design-guide-for-stm32wl-series-stmicroelectronics guide</t>
+  </si>
+  <si>
+    <t>Input Impedance:</t>
+  </si>
+  <si>
+    <t>10.71 + j1.85</t>
+  </si>
+  <si>
+    <t>UFQFPN48 package, 22 dBm @ 915 MHz, VDD_MCU = 3.3 V.</t>
+  </si>
+  <si>
+    <t>UFQFPN48 package, 14 dBm @ 915 MHz, VDD_MCU = 3.3 V.</t>
+  </si>
+  <si>
+    <t>14.25 + j1.24</t>
+  </si>
+  <si>
+    <t>UFQFPN48 package, 15 dBm @ 915 MHz, VDD_MCU = 3.3 V.</t>
+  </si>
+  <si>
+    <t>14.18 + j1.20</t>
   </si>
 </sst>
 </file>
@@ -84,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,22 +445,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E110AD2-4207-6C45-9047-60FE84E6C3CF}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
